--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.4.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.4.1_TC1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="324" yWindow="708" windowWidth="21600" windowHeight="11328" tabRatio="732" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4755" yWindow="-13725" windowWidth="21600" windowHeight="11325" tabRatio="732" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="QuantitativeMetrics" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="_Values" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -520,7 +520,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>It calls a not valid Playwright method: page.waitForDownload()</t>
+          <t>Calling a not existing method</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2794478889121597</v>
+        <v>0.3036414372992564</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.27944788891215966, 'ngram_match_score': 0.14347354720083563, 'weighted_ngram_match_score': 0.15355275219867576, 'syntax_match_score': 0.551948051948052, 'dataflow_match_score': 0.26881720430107525}</t>
+          <t>{'codebleu': 0.3036414372992564, 'ngram_match_score': 0.14347354720083563, 'weighted_ngram_match_score': 0.15355275219867576, 'syntax_match_score': 0.551948051948052, 'dataflow_match_score': 0.3655913978494624}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.4.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.4.1_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3036414372992564</v>
+        <v>0.2928887491272134</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3036414372992564, 'ngram_match_score': 0.14347354720083563, 'weighted_ngram_match_score': 0.15355275219867576, 'syntax_match_score': 0.551948051948052, 'dataflow_match_score': 0.3655913978494624}</t>
+          <t>{'codebleu': 0.2928887491272134, 'ngram_match_score': 0.14347354720083563, 'weighted_ngram_match_score': 0.15355275219867576, 'syntax_match_score': 0.551948051948052, 'dataflow_match_score': 0.3225806451612903}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
